--- a/random_emails_passwords.xlsx
+++ b/random_emails_passwords.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Email</t>
   </si>
@@ -80,13 +80,34 @@
   </si>
   <si>
     <t>ciqQ7qD"`8</t>
+  </si>
+  <si>
+    <t>kane.smith@example.com</t>
+  </si>
+  <si>
+    <t>alicia.johnson@example.com</t>
+  </si>
+  <si>
+    <t>abel.smith@example.com</t>
+  </si>
+  <si>
+    <t>moses.smith@example.com</t>
+  </si>
+  <si>
+    <t>cairo.johnson@example.com</t>
+  </si>
+  <si>
+    <t>jacob.smith@example.com</t>
+  </si>
+  <si>
+    <t>42563690@mynwu.ac.za</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +120,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="10"/>
+      <u val="single"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -138,11 +167,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,11 +473,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" activeCellId="0" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,23 +490,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -475,7 +514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -483,7 +522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -491,7 +530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -499,7 +538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -507,7 +546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -515,7 +554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -523,7 +562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -532,6 +571,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" display="cairo.johnson@example.com" r:id="rId5"/>
+    <hyperlink ref="A2" display="42563690@mynwu.ac.za" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/random_emails_passwords.xlsx
+++ b/random_emails_passwords.xlsx
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>jacob.smith@example.com</t>
-  </si>
-  <si>
-    <t>42563690@mynwu.ac.za</t>
   </si>
 </sst>
 </file>
@@ -167,13 +164,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
@@ -474,7 +470,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -492,7 +488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -573,7 +569,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" display="cairo.johnson@example.com" r:id="rId5"/>
-    <hyperlink ref="A2" display="42563690@mynwu.ac.za" r:id="rId7"/>
+    <hyperlink ref="A2" display="jacob.smith@example.com" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
